--- a/Data/SPF_window_alternatives.xlsx
+++ b/Data/SPF_window_alternatives.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSP\Desktop\Dr_Baradaran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSP\Desktop\Dr_Baradaran\Moving_window\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F41A0E7-CD11-4DFD-BA1D-4C58ECBC17E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DBCC0B-2CE1-4EC0-B875-E3F1522A764D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$N$62</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
-  <si>
-    <t>seg</t>
-  </si>
-  <si>
-    <t>تعداد تصادف</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>تعداد دسترسی</t>
   </si>
@@ -62,6 +60,45 @@
   <si>
     <t>X3</t>
   </si>
+  <si>
+    <t>تعداد تصادف سگمنت</t>
+  </si>
+  <si>
+    <t>سناروی طول پنجره</t>
+  </si>
+  <si>
+    <t>Alt1</t>
+  </si>
+  <si>
+    <t>Alt2</t>
+  </si>
+  <si>
+    <t>Alt3</t>
+  </si>
+  <si>
+    <t>Alt4</t>
+  </si>
+  <si>
+    <t>Alt5</t>
+  </si>
+  <si>
+    <t>Alt6</t>
+  </si>
+  <si>
+    <t>Alt7</t>
+  </si>
+  <si>
+    <t>Alt8</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>سگمنت</t>
+  </si>
+  <si>
+    <t>Seg</t>
+  </si>
 </sst>
 </file>
 
@@ -70,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,8 +124,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +157,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -154,10 +210,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -167,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,13 +289,27 @@
     <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,58 +648,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F62"/>
+  <dimension ref="A2:N68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F62"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="6"/>
     <col min="5" max="6" width="12.42578125" style="7" customWidth="1"/>
+    <col min="7" max="14" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>59</v>
       </c>
@@ -622,11 +755,35 @@
         <f t="shared" ref="E4:E35" si="0">F4/C4</f>
         <v>0.9207468186443345</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="6">
+        <v>794</v>
+      </c>
+      <c r="H4" s="6">
+        <v>705</v>
+      </c>
+      <c r="I4" s="6">
+        <v>679</v>
+      </c>
+      <c r="J4" s="6">
+        <v>494</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>58</v>
       </c>
@@ -643,11 +800,35 @@
         <f t="shared" si="0"/>
         <v>0.99714475659273172</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="15">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="6">
+        <v>195</v>
+      </c>
+      <c r="H5" s="6">
+        <v>589</v>
+      </c>
+      <c r="I5" s="6">
+        <v>440</v>
+      </c>
+      <c r="J5" s="6">
+        <v>217</v>
+      </c>
+      <c r="K5" s="6">
+        <v>100</v>
+      </c>
+      <c r="L5" s="6">
+        <v>579</v>
+      </c>
+      <c r="M5" s="6">
+        <v>166</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>57</v>
       </c>
@@ -664,11 +845,35 @@
         <f t="shared" si="0"/>
         <v>0.74456577857224548</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="15">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="6">
+        <v>322</v>
+      </c>
+      <c r="H6" s="6">
+        <v>335</v>
+      </c>
+      <c r="I6" s="6">
+        <v>484</v>
+      </c>
+      <c r="J6" s="6">
+        <v>155</v>
+      </c>
+      <c r="K6" s="6">
+        <v>100</v>
+      </c>
+      <c r="L6" s="6">
+        <v>254</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>56</v>
       </c>
@@ -685,11 +890,35 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>55</v>
       </c>
@@ -706,11 +935,35 @@
         <f t="shared" si="0"/>
         <v>0.66928266067377618</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="11">
+        <v>531</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>54</v>
       </c>
@@ -727,11 +980,35 @@
         <f t="shared" si="0"/>
         <v>0.73869954500429369</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="11">
+        <v>227</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>53</v>
       </c>
@@ -748,11 +1025,35 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>52</v>
       </c>
@@ -769,11 +1070,35 @@
         <f t="shared" si="0"/>
         <v>0.70100725573501799</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="11">
+        <v>263</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>51</v>
       </c>
@@ -790,11 +1115,35 @@
         <f t="shared" si="0"/>
         <v>0.80272897294658863</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="11">
+        <v>100</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>50</v>
       </c>
@@ -811,11 +1160,35 @@
         <f t="shared" si="0"/>
         <v>0.60580192782057563</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="11">
+        <v>265</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>49</v>
       </c>
@@ -832,11 +1205,35 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>266</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>48</v>
       </c>
@@ -853,11 +1250,35 @@
         <f t="shared" si="0"/>
         <v>0.45370983905678819</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0</v>
+      </c>
+      <c r="N15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>47</v>
       </c>
@@ -874,11 +1295,35 @@
         <f t="shared" si="0"/>
         <v>0.52604867040406234</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="6">
+        <v>417</v>
+      </c>
+      <c r="H16" s="6">
+        <v>359</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>46</v>
       </c>
@@ -895,11 +1340,35 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
+        <v>0</v>
+      </c>
+      <c r="M17" s="16">
+        <v>0</v>
+      </c>
+      <c r="N17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45</v>
       </c>
@@ -916,11 +1385,35 @@
         <f t="shared" si="0"/>
         <v>0.41557939407701838</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="11">
+        <v>190</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44</v>
       </c>
@@ -937,11 +1430,35 @@
         <f t="shared" si="0"/>
         <v>0.65074833319638881</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="11">
+        <v>308</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43</v>
       </c>
@@ -958,11 +1475,35 @@
         <f t="shared" si="0"/>
         <v>0.448515121508062</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="6">
+        <v>631</v>
+      </c>
+      <c r="H20" s="6">
+        <v>287</v>
+      </c>
+      <c r="I20" s="6">
+        <v>210</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42</v>
       </c>
@@ -979,11 +1520,35 @@
         <f t="shared" si="0"/>
         <v>0.58876591253814714</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="6">
+        <v>253</v>
+      </c>
+      <c r="H21" s="6">
+        <v>196</v>
+      </c>
+      <c r="I21" s="6">
+        <v>163</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41</v>
       </c>
@@ -1000,11 +1565,35 @@
         <f t="shared" si="0"/>
         <v>0.56600064007761763</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="6">
+        <v>117</v>
+      </c>
+      <c r="H22" s="6">
+        <v>536</v>
+      </c>
+      <c r="I22" s="6">
+        <v>100</v>
+      </c>
+      <c r="J22" s="6">
+        <v>248</v>
+      </c>
+      <c r="K22" s="6">
+        <v>213</v>
+      </c>
+      <c r="L22" s="6">
+        <v>944</v>
+      </c>
+      <c r="M22" s="6">
+        <v>308</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40</v>
       </c>
@@ -1021,11 +1610,35 @@
         <f t="shared" si="0"/>
         <v>1.2410239673190484</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="6">
+        <v>511</v>
+      </c>
+      <c r="H23" s="6">
+        <v>257</v>
+      </c>
+      <c r="I23" s="6">
+        <v>243</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>39</v>
       </c>
@@ -1042,11 +1655,35 @@
         <f t="shared" si="0"/>
         <v>1.1173220319520918</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="6">
+        <v>737</v>
+      </c>
+      <c r="H24" s="6">
+        <v>449</v>
+      </c>
+      <c r="I24" s="6">
+        <v>100</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>38</v>
       </c>
@@ -1063,11 +1700,35 @@
         <f t="shared" si="0"/>
         <v>0.89223670052668769</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="6">
+        <v>364</v>
+      </c>
+      <c r="H25" s="6">
+        <v>668</v>
+      </c>
+      <c r="I25" s="6">
+        <v>379</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>37</v>
       </c>
@@ -1084,11 +1745,35 @@
         <f t="shared" si="0"/>
         <v>0.59082144975321038</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="6">
+        <v>166</v>
+      </c>
+      <c r="H26" s="6">
+        <v>100</v>
+      </c>
+      <c r="I26" s="6">
+        <v>515</v>
+      </c>
+      <c r="J26" s="6">
+        <v>221</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>36</v>
       </c>
@@ -1105,11 +1790,35 @@
         <f t="shared" si="0"/>
         <v>1.3060571377557129</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="6">
+        <v>108</v>
+      </c>
+      <c r="H27" s="6">
+        <v>222</v>
+      </c>
+      <c r="I27" s="6">
+        <v>306</v>
+      </c>
+      <c r="J27" s="6">
+        <v>140</v>
+      </c>
+      <c r="K27" s="6">
+        <v>100</v>
+      </c>
+      <c r="L27" s="6">
+        <v>399</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>35</v>
       </c>
@@ -1126,11 +1835,35 @@
         <f t="shared" si="0"/>
         <v>0.98939735344275603</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="11">
+        <v>133</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>34</v>
       </c>
@@ -1147,11 +1880,35 @@
         <f t="shared" si="0"/>
         <v>1.8293896967240593</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="11">
+        <v>161</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>33</v>
       </c>
@@ -1168,11 +1925,35 @@
         <f t="shared" si="0"/>
         <v>1.9797238846361263</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -1189,11 +1970,35 @@
         <f t="shared" si="0"/>
         <v>2.9273117644583921</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0</v>
+      </c>
+      <c r="M31" s="16">
+        <v>0</v>
+      </c>
+      <c r="N31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1210,11 +2015,35 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <v>0</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <v>0</v>
+      </c>
+      <c r="N32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1231,11 +2060,35 @@
         <f t="shared" si="0"/>
         <v>3.1566632818017388</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="16">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0</v>
+      </c>
+      <c r="I33" s="16">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0</v>
+      </c>
+      <c r="K33" s="16">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16">
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
+        <v>0</v>
+      </c>
+      <c r="N33" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>29</v>
       </c>
@@ -1252,11 +2105,35 @@
         <f t="shared" si="0"/>
         <v>2.4976269404942708</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
+        <v>0</v>
+      </c>
+      <c r="N34" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>28</v>
       </c>
@@ -1273,11 +2150,35 @@
         <f t="shared" si="0"/>
         <v>1.4224195637870012</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="11">
+        <v>559</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>27</v>
       </c>
@@ -1294,11 +2195,35 @@
         <f t="shared" ref="E36:E67" si="1">F36/C36</f>
         <v>0.7680409502449923</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="11">
+        <v>302</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>26</v>
       </c>
@@ -1315,11 +2240,35 @@
         <f t="shared" si="1"/>
         <v>1.8136696155642085</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="11">
+        <v>915</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <v>0</v>
+      </c>
+      <c r="N37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>25</v>
       </c>
@@ -1336,11 +2285,35 @@
         <f t="shared" si="1"/>
         <v>1.0021474323204347</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="6">
+        <v>203</v>
+      </c>
+      <c r="H38" s="6">
+        <v>960</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>24</v>
       </c>
@@ -1357,11 +2330,35 @@
         <f t="shared" si="1"/>
         <v>1.6820569992532701</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="11">
+        <v>417</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>23</v>
       </c>
@@ -1378,11 +2375,35 @@
         <f t="shared" si="1"/>
         <v>0.76492186906156323</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="11">
+        <v>766</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>22</v>
       </c>
@@ -1399,11 +2420,35 @@
         <f t="shared" si="1"/>
         <v>0.76921801187901273</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="6">
+        <v>100</v>
+      </c>
+      <c r="H41" s="6">
+        <v>265</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>21</v>
       </c>
@@ -1420,11 +2465,35 @@
         <f t="shared" si="1"/>
         <v>1.2412338064829456</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="6">
+        <v>270</v>
+      </c>
+      <c r="H42" s="6">
+        <v>100</v>
+      </c>
+      <c r="I42" s="6">
+        <v>108</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>20</v>
       </c>
@@ -1441,11 +2510,35 @@
         <f t="shared" si="1"/>
         <v>0.55487262870742382</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="11">
+        <v>1018</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>19</v>
       </c>
@@ -1462,11 +2555,35 @@
         <f t="shared" si="1"/>
         <v>0.51796528975765321</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="11">
+        <v>535</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -1483,11 +2600,35 @@
         <f t="shared" si="1"/>
         <v>0.68682213097864475</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="16">
+        <v>0</v>
+      </c>
+      <c r="H45" s="16">
+        <v>0</v>
+      </c>
+      <c r="I45" s="16">
+        <v>0</v>
+      </c>
+      <c r="J45" s="16">
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
+        <v>0</v>
+      </c>
+      <c r="L45" s="16">
+        <v>0</v>
+      </c>
+      <c r="M45" s="16">
+        <v>0</v>
+      </c>
+      <c r="N45" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>17</v>
       </c>
@@ -1504,11 +2645,35 @@
         <f t="shared" si="1"/>
         <v>1.1570819977919551</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="6">
+        <v>114</v>
+      </c>
+      <c r="H46" s="6">
+        <v>112</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>16</v>
       </c>
@@ -1525,11 +2690,35 @@
         <f t="shared" si="1"/>
         <v>0.49187165973909391</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="6">
+        <v>172</v>
+      </c>
+      <c r="H47" s="6">
+        <v>208</v>
+      </c>
+      <c r="I47" s="6">
+        <v>664</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>15</v>
       </c>
@@ -1546,11 +2735,35 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="15">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>255</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>14</v>
       </c>
@@ -1567,11 +2780,35 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
+        <v>100</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0</v>
+      </c>
+      <c r="J49" s="11">
+        <v>0</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0</v>
+      </c>
+      <c r="L49" s="11">
+        <v>0</v>
+      </c>
+      <c r="M49" s="11">
+        <v>0</v>
+      </c>
+      <c r="N49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>13</v>
       </c>
@@ -1588,11 +2825,35 @@
         <f t="shared" si="1"/>
         <v>0.14258660012907345</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="6">
+        <v>153</v>
+      </c>
+      <c r="H50" s="6">
+        <v>210</v>
+      </c>
+      <c r="I50" s="6">
+        <v>181</v>
+      </c>
+      <c r="J50" s="6">
+        <v>252</v>
+      </c>
+      <c r="K50" s="6">
+        <v>282</v>
+      </c>
+      <c r="L50" s="6">
+        <v>256</v>
+      </c>
+      <c r="M50" s="6">
+        <v>268</v>
+      </c>
+      <c r="N50" s="6">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>12</v>
       </c>
@@ -1609,11 +2870,35 @@
         <f t="shared" si="1"/>
         <v>1.8146768906168789</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="11">
+        <v>1079</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+      <c r="K51" s="11">
+        <v>0</v>
+      </c>
+      <c r="L51" s="11">
+        <v>0</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0</v>
+      </c>
+      <c r="N51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>11</v>
       </c>
@@ -1630,11 +2915,35 @@
         <f t="shared" si="1"/>
         <v>0.75133705959186314</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="6">
+        <v>195</v>
+      </c>
+      <c r="H52" s="6">
+        <v>211</v>
+      </c>
+      <c r="I52" s="6">
+        <v>285</v>
+      </c>
+      <c r="J52" s="6">
+        <v>329</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>10</v>
       </c>
@@ -1651,11 +2960,35 @@
         <f t="shared" si="1"/>
         <v>0.91278203879443076</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="11">
+        <v>511</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11">
+        <v>0</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0</v>
+      </c>
+      <c r="L53" s="11">
+        <v>0</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0</v>
+      </c>
+      <c r="N53" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>9</v>
       </c>
@@ -1672,11 +3005,35 @@
         <f t="shared" si="1"/>
         <v>1.1096499820855263</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="6">
+        <v>117</v>
+      </c>
+      <c r="H54" s="6">
+        <v>100</v>
+      </c>
+      <c r="I54" s="6">
+        <v>241</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>8</v>
       </c>
@@ -1693,11 +3050,35 @@
         <f t="shared" si="1"/>
         <v>0.53984530818730359</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="6">
+        <v>719</v>
+      </c>
+      <c r="H55" s="6">
+        <v>454</v>
+      </c>
+      <c r="I55" s="6">
+        <v>224</v>
+      </c>
+      <c r="J55" s="6">
+        <v>574</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>7</v>
       </c>
@@ -1714,11 +3095,35 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="15">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>147</v>
+      </c>
+      <c r="H56" s="6">
+        <v>516</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <v>0</v>
+      </c>
+      <c r="N56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -1735,11 +3140,35 @@
         <f t="shared" si="1"/>
         <v>0.9011140325869379</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="11">
+        <v>264</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <v>0</v>
+      </c>
+      <c r="J57" s="11">
+        <v>0</v>
+      </c>
+      <c r="K57" s="11">
+        <v>0</v>
+      </c>
+      <c r="L57" s="11">
+        <v>0</v>
+      </c>
+      <c r="M57" s="11">
+        <v>0</v>
+      </c>
+      <c r="N57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>5</v>
       </c>
@@ -1756,11 +3185,35 @@
         <f t="shared" si="1"/>
         <v>0.2383400120197546</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="6">
+        <v>150</v>
+      </c>
+      <c r="H58" s="6">
+        <v>428</v>
+      </c>
+      <c r="I58" s="6">
+        <v>511</v>
+      </c>
+      <c r="J58" s="6">
+        <v>252</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0</v>
+      </c>
+      <c r="L58" s="6">
+        <v>0</v>
+      </c>
+      <c r="M58" s="6">
+        <v>0</v>
+      </c>
+      <c r="N58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>4</v>
       </c>
@@ -1777,11 +3230,35 @@
         <f t="shared" si="1"/>
         <v>2.2789481066254824</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="11">
+        <v>827</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>0</v>
+      </c>
+      <c r="J59" s="11">
+        <v>0</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0</v>
+      </c>
+      <c r="L59" s="11">
+        <v>0</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>3</v>
       </c>
@@ -1798,11 +3275,35 @@
         <f t="shared" si="1"/>
         <v>0.46949243131591883</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="6">
+        <v>778</v>
+      </c>
+      <c r="H60" s="6">
+        <v>100</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0</v>
+      </c>
+      <c r="M60" s="6">
+        <v>0</v>
+      </c>
+      <c r="N60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -1819,11 +3320,35 @@
         <f t="shared" si="1"/>
         <v>0.48982900660797785</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="6">
+        <v>254</v>
+      </c>
+      <c r="H61" s="6">
+        <v>378</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6">
+        <v>0</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0</v>
+      </c>
+      <c r="M61" s="6">
+        <v>0</v>
+      </c>
+      <c r="N61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -1840,14 +3365,105 @@
         <f t="shared" si="1"/>
         <v>0.32159730575807832</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="15">
         <v>2</v>
       </c>
+      <c r="G62" s="6">
+        <v>100</v>
+      </c>
+      <c r="H62" s="6">
+        <v>566</v>
+      </c>
+      <c r="I62" s="6">
+        <v>167</v>
+      </c>
+      <c r="J62" s="6">
+        <v>0</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0</v>
+      </c>
+      <c r="L62" s="6">
+        <v>0</v>
+      </c>
+      <c r="M62" s="6">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F63" s="15"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F64" s="15"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+    </row>
+    <row r="65" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F65" s="15"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F66" s="15"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F67" s="15"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F68" s="15"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:N2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1855,1035 +3471,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1">
-        <v>49</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4.344299560968798</v>
-      </c>
-      <c r="D2" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.9207468186443345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>58</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44</v>
-      </c>
-      <c r="C3" s="4">
-        <v>9.0257707724936775</v>
-      </c>
-      <c r="D3" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.99714475659273172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>57</v>
-      </c>
-      <c r="B4" s="1">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4">
-        <v>9.4014527681126658</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.74456577857224548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>56</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.685523966094573</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>55</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.4941370197657386</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.66928266067377618</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>54</v>
-      </c>
-      <c r="B7" s="1">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2.7074607173182637</v>
-      </c>
-      <c r="D7" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.73869954500429369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>53</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.69572426478401816</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>52</v>
-      </c>
-      <c r="B9" s="1">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1.4265187582851522</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.70100725573501799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>51</v>
-      </c>
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2.4915009516332414</v>
-      </c>
-      <c r="D10" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.80272897294658863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4">
-        <v>3.301409104449653</v>
-      </c>
-      <c r="D11" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.60580192782057563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>49</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1.6020091920646438</v>
-      </c>
-      <c r="D12" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>48</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2.2040518276590335</v>
-      </c>
-      <c r="D13" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.45370983905678819</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>47</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4">
-        <v>7.6038591579892545</v>
-      </c>
-      <c r="D14" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.52604867040406234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>46</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1.7188077771195354</v>
-      </c>
-      <c r="D15" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2.4062790750752967</v>
-      </c>
-      <c r="D16" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.41557939407701838</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44</v>
-      </c>
-      <c r="B17" s="1">
-        <v>10</v>
-      </c>
-      <c r="C17" s="4">
-        <v>6.1467694897542566</v>
-      </c>
-      <c r="D17" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.65074833319638881</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>43</v>
-      </c>
-      <c r="B18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4">
-        <v>4.4591584633207297</v>
-      </c>
-      <c r="D18" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.448515121508062</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>42</v>
-      </c>
-      <c r="B19" s="1">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4">
-        <v>8.4923394740113149</v>
-      </c>
-      <c r="D19" s="6">
-        <v>8076.666666666667</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.58876591253814714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1">
-        <v>47</v>
-      </c>
-      <c r="C20" s="4">
-        <v>8.8339122713966063</v>
-      </c>
-      <c r="D20" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.56600064007761763</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2.4173586320664069</v>
-      </c>
-      <c r="D21" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1.2410239673190484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>39</v>
-      </c>
-      <c r="B22" s="1">
-        <v>16</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2.6849913580945417</v>
-      </c>
-      <c r="D22" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1.1173220319520918</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4">
-        <v>6.7246729443635278</v>
-      </c>
-      <c r="D23" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0.89223670052668769</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1">
-        <v>26</v>
-      </c>
-      <c r="C24" s="4">
-        <v>6.7702349020517509</v>
-      </c>
-      <c r="D24" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0.59082144975321038</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>36</v>
-      </c>
-      <c r="B25" s="1">
-        <v>33</v>
-      </c>
-      <c r="C25" s="4">
-        <v>6.1253062892385755</v>
-      </c>
-      <c r="D25" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1.3060571377557129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1.0107162673523944</v>
-      </c>
-      <c r="D26" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0.98939735344275603</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>34</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5</v>
-      </c>
-      <c r="C27" s="4">
-        <v>2.1865215526046282</v>
-      </c>
-      <c r="D27" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1.8293896967240593</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>33</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1.5153628358387972</v>
-      </c>
-      <c r="D28" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1.9797238846361263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>32</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1.7080517561220863</v>
-      </c>
-      <c r="D29" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E29" s="7">
-        <v>2.9273117644583921</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>31</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0.50526889174928302</v>
-      </c>
-      <c r="D30" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="5">
-        <v>0.63358040483128553</v>
-      </c>
-      <c r="D31" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E31" s="7">
-        <v>3.1566632818017388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>29</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1.2011401508210475</v>
-      </c>
-      <c r="D32" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E32" s="7">
-        <v>2.4976269404942708</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>28</v>
-      </c>
-      <c r="B33" s="2">
-        <v>25</v>
-      </c>
-      <c r="C33" s="5">
-        <v>2.1090823526167641</v>
-      </c>
-      <c r="D33" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1.4224195637870012</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>27</v>
-      </c>
-      <c r="B34" s="2">
-        <v>7</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1.3020139091294762</v>
-      </c>
-      <c r="D34" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0.7680409502449923</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>26</v>
-      </c>
-      <c r="B35" s="1">
-        <v>18</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1.1027366742193707</v>
-      </c>
-      <c r="D35" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1.8136696155642085</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>25</v>
-      </c>
-      <c r="B36" s="1">
-        <v>22</v>
-      </c>
-      <c r="C36" s="4">
-        <v>1.9957143385270919</v>
-      </c>
-      <c r="D36" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1.0021474323204347</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>24</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0.59451017441379128</v>
-      </c>
-      <c r="D37" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1.6820569992532701</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>23</v>
-      </c>
-      <c r="B38" s="1">
-        <v>10</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1.3073230619315932</v>
-      </c>
-      <c r="D38" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0.76492186906156323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>22</v>
-      </c>
-      <c r="B39" s="1">
-        <v>8</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1.3000215602820362</v>
-      </c>
-      <c r="D39" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E39" s="7">
-        <v>0.76921801187901273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>21</v>
-      </c>
-      <c r="B40" s="1">
-        <v>16</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1.6112999739082436</v>
-      </c>
-      <c r="D40" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1.2412338064829456</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>20</v>
-      </c>
-      <c r="B41" s="1">
-        <v>16</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1.8022154063167626</v>
-      </c>
-      <c r="D41" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E41" s="7">
-        <v>0.55487262870742382</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>19</v>
-      </c>
-      <c r="B42" s="1">
-        <v>18</v>
-      </c>
-      <c r="C42" s="4">
-        <v>3.8612625972210695</v>
-      </c>
-      <c r="D42" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E42" s="7">
-        <v>0.51796528975765321</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>18</v>
-      </c>
-      <c r="B43" s="1">
-        <v>11</v>
-      </c>
-      <c r="C43" s="4">
-        <v>5.8239241567543072</v>
-      </c>
-      <c r="D43" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E43" s="7">
-        <v>0.68682213097864475</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>17</v>
-      </c>
-      <c r="B44" s="1">
-        <v>13</v>
-      </c>
-      <c r="C44" s="4">
-        <v>4.3212149264628064</v>
-      </c>
-      <c r="D44" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1.1570819977919551</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>16</v>
-      </c>
-      <c r="B45" s="1">
-        <v>33</v>
-      </c>
-      <c r="C45" s="4">
-        <v>8.1322026199308599</v>
-      </c>
-      <c r="D45" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E45" s="7">
-        <v>0.49187165973909391</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>15</v>
-      </c>
-      <c r="B46" s="1">
-        <v>5</v>
-      </c>
-      <c r="C46" s="4">
-        <v>1.6969194819187301</v>
-      </c>
-      <c r="D46" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>14</v>
-      </c>
-      <c r="B47" s="1">
-        <v>3</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0.70391480131610151</v>
-      </c>
-      <c r="D47" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>13</v>
-      </c>
-      <c r="B48" s="1">
-        <v>33</v>
-      </c>
-      <c r="C48" s="4">
-        <v>7.0132817466351787</v>
-      </c>
-      <c r="D48" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E48" s="7">
-        <v>0.14258660012907345</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>12</v>
-      </c>
-      <c r="B49" s="1">
-        <v>13</v>
-      </c>
-      <c r="C49" s="4">
-        <v>1.1021245767449668</v>
-      </c>
-      <c r="D49" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E49" s="7">
-        <v>1.8146768906168789</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>11</v>
-      </c>
-      <c r="B50" s="1">
-        <v>26</v>
-      </c>
-      <c r="C50" s="4">
-        <v>5.3238422741623532</v>
-      </c>
-      <c r="D50" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E50" s="7">
-        <v>0.75133705959186314</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>10</v>
-      </c>
-      <c r="B51" s="1">
-        <v>5</v>
-      </c>
-      <c r="C51" s="4">
-        <v>1.0955517938551502</v>
-      </c>
-      <c r="D51" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E51" s="7">
-        <v>0.91278203879443076</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>9</v>
-      </c>
-      <c r="B52" s="1">
-        <v>10</v>
-      </c>
-      <c r="C52" s="4">
-        <v>1.8023701458013901</v>
-      </c>
-      <c r="D52" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E52" s="7">
-        <v>1.1096499820855263</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>8</v>
-      </c>
-      <c r="B53" s="1">
-        <v>32</v>
-      </c>
-      <c r="C53" s="4">
-        <v>7.4095299881946346</v>
-      </c>
-      <c r="D53" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E53" s="7">
-        <v>0.53984530818730359</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>7</v>
-      </c>
-      <c r="B54" s="1">
-        <v>12</v>
-      </c>
-      <c r="C54" s="4">
-        <v>2.9082682187159308</v>
-      </c>
-      <c r="D54" s="6">
-        <v>7307.333333333333</v>
-      </c>
-      <c r="E54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>6</v>
-      </c>
-      <c r="B55" s="1">
-        <v>6</v>
-      </c>
-      <c r="C55" s="4">
-        <v>1.1097374625597363</v>
-      </c>
-      <c r="D55" s="6">
-        <v>7575</v>
-      </c>
-      <c r="E55" s="7">
-        <v>0.9011140325869379</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>5</v>
-      </c>
-      <c r="B56" s="1">
-        <v>21</v>
-      </c>
-      <c r="C56" s="4">
-        <v>4.1956866223415137</v>
-      </c>
-      <c r="D56" s="6">
-        <v>7575</v>
-      </c>
-      <c r="E56" s="7">
-        <v>0.2383400120197546</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>4</v>
-      </c>
-      <c r="B57" s="2">
-        <v>13</v>
-      </c>
-      <c r="C57" s="5">
-        <v>2.1939946703760946</v>
-      </c>
-      <c r="D57" s="6">
-        <v>7575</v>
-      </c>
-      <c r="E57" s="7">
-        <v>2.2789481066254824</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>3</v>
-      </c>
-      <c r="B58" s="1">
-        <v>21</v>
-      </c>
-      <c r="C58" s="4">
-        <v>4.2599195782438741</v>
-      </c>
-      <c r="D58" s="6">
-        <v>7575</v>
-      </c>
-      <c r="E58" s="7">
-        <v>0.46949243131591883</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>2</v>
-      </c>
-      <c r="B59" s="1">
-        <v>14</v>
-      </c>
-      <c r="C59" s="4">
-        <v>4.0830575017388648</v>
-      </c>
-      <c r="D59" s="6">
-        <v>7575</v>
-      </c>
-      <c r="E59" s="7">
-        <v>0.48982900660797785</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>1</v>
-      </c>
-      <c r="B60" s="1">
-        <v>17</v>
-      </c>
-      <c r="C60" s="4">
-        <v>6.2189575726871933</v>
-      </c>
-      <c r="D60" s="6">
-        <v>7575</v>
-      </c>
-      <c r="E60" s="7">
-        <v>0.32159730575807832</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
